--- a/arsip/simpleadditiveweight.xlsx
+++ b/arsip/simpleadditiveweight.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="CPI" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +27,87 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+  <si>
+    <t>Template perhitungan CPI</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>Jenis kriteria</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Bobot</t>
+  </si>
+  <si>
+    <t>Normalisasi</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Alternatif</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Zetta</t>
+  </si>
+  <si>
+    <t>Tetta</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Alternatif terbaik</t>
+  </si>
+  <si>
+    <t>Simple Additive Weight</t>
+  </si>
   <si>
     <t>Kriteria</t>
   </si>
@@ -50,9 +130,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>GPA</t>
-  </si>
-  <si>
     <t>Benefit</t>
   </si>
   <si>
@@ -86,34 +163,10 @@
     <t>Ranking Choice</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alternative </t>
   </si>
   <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Zetta</t>
-  </si>
-  <si>
-    <t>Tetta</t>
-  </si>
-  <si>
     <t>Max/MIn</t>
-  </si>
-  <si>
-    <t>rij=xijmax.xij</t>
   </si>
 </sst>
 </file>
@@ -126,7 +179,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,6 +188,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -160,8 +221,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,13 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
@@ -338,6 +442,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -523,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -584,9 +700,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -597,13 +711,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,195 +852,226 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,604 +1544,807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="34" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" style="34" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" style="34" customWidth="1"/>
+    <col min="4" max="4" width="18" style="34" customWidth="1"/>
+    <col min="5" max="5" width="6.85714285714286" style="34" customWidth="1"/>
+    <col min="6" max="8" width="14.7142857142857" style="34" customWidth="1"/>
+    <col min="9" max="9" width="12.8571428571429" style="34"/>
+    <col min="10" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:1">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:1">
+      <c r="A2" s="35"/>
+    </row>
+    <row r="3" ht="15" spans="1:4">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="39">
+        <f>SUM(B5:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="34" t="str">
+        <f>IF(C6=1,"==&gt; 👍 bobot valid","🚫 bobot tidak valid")</f>
+        <v>==&gt; 👍 bobot valid</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9">
+      <c r="F7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="34" t="str">
+        <f>B3</f>
+        <v>GPA</v>
+      </c>
+      <c r="C8" s="34" t="str">
+        <f>C3</f>
+        <v>Income</v>
+      </c>
+      <c r="D8" s="34" t="str">
+        <f>D3</f>
+        <v>Dependent</v>
+      </c>
+      <c r="F8" s="41" t="str">
+        <f>B3</f>
+        <v>GPA</v>
+      </c>
+      <c r="G8" s="41" t="str">
+        <f>C3</f>
+        <v>Income</v>
+      </c>
+      <c r="H8" s="41" t="str">
+        <f>D3</f>
+        <v>Dependent</v>
+      </c>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" ht="15" spans="1:10">
+      <c r="A9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="37">
+        <v>3.82</v>
+      </c>
+      <c r="C9" s="37">
+        <v>2500000</v>
+      </c>
+      <c r="D9" s="37">
+        <v>4</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="41">
+        <f>$B$15/B9</f>
+        <v>0.649214659685864</v>
+      </c>
+      <c r="G9" s="41">
+        <f>C9/$C$15</f>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="H9" s="41">
+        <f>D9/$D$15</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="I9" s="44">
+        <f>F9*$B$5+G9*$C$5+H9*$D$5</f>
+        <v>1.15968586387435</v>
+      </c>
+      <c r="J9" s="34">
+        <f>RANK(I9,$I$9:$I$13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:10">
+      <c r="A10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="37">
+        <v>4</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1500000</v>
+      </c>
+      <c r="D10" s="37">
+        <v>3</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="41">
+        <f>$B$15/B10</f>
+        <v>0.62</v>
+      </c>
+      <c r="G10" s="41">
+        <f>C10/$C$15</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="41">
+        <f>D10/$D$15</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="44">
+        <f>F10*$B$5+G10*$C$5+H10*$D$5</f>
+        <v>0.848</v>
+      </c>
+      <c r="J10" s="34">
+        <f>RANK(I10,$I$9:$I$13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:10">
+      <c r="A11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="37">
+        <v>2.48</v>
+      </c>
+      <c r="C11" s="37">
+        <v>4000000</v>
+      </c>
+      <c r="D11" s="37">
+        <v>3</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="41">
+        <f>$B$15/B11</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="41">
+        <f>C11/$C$15</f>
+        <v>2.66666666666667</v>
+      </c>
+      <c r="H11" s="41">
+        <f>D11/$D$15</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="44">
+        <f>F11*$B$5+G11*$C$5+H11*$D$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="34">
+        <f>RANK(I11,$I$9:$I$13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:10">
+      <c r="A12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="37">
+        <v>3.24</v>
+      </c>
+      <c r="C12" s="37">
+        <v>3200000</v>
+      </c>
+      <c r="D12" s="37">
+        <v>2</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="41">
+        <f>$B$15/B12</f>
+        <v>0.765432098765432</v>
+      </c>
+      <c r="G12" s="41">
+        <f>C12/$C$15</f>
+        <v>2.13333333333333</v>
+      </c>
+      <c r="H12" s="41">
+        <f>D12/$D$15</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I12" s="44">
+        <f>F12*$B$5+G12*$C$5+H12*$D$5</f>
+        <v>1.14617283950617</v>
+      </c>
+      <c r="J12" s="34">
+        <f>RANK(I12,$I$9:$I$13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:10">
+      <c r="A13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="37">
+        <v>3</v>
+      </c>
+      <c r="C13" s="37">
+        <v>5000000</v>
+      </c>
+      <c r="D13" s="37">
+        <v>4</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="41">
+        <f>$B$15/B13</f>
+        <v>0.826666666666667</v>
+      </c>
+      <c r="G13" s="41">
+        <f>C13/$C$15</f>
+        <v>3.33333333333333</v>
+      </c>
+      <c r="H13" s="41">
+        <f>D13/$D$15</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="I13" s="44">
+        <f>F13*$B$5+G13*$C$5+H13*$D$5</f>
+        <v>1.73066666666667</v>
+      </c>
+      <c r="J13" s="34">
+        <f>RANK(I13,$I$9:$I$13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:9">
+      <c r="A15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="34">
+        <f>MIN(B9:B11)</f>
+        <v>2.48</v>
+      </c>
+      <c r="C15" s="34">
+        <f>MIN(C9:C11)</f>
+        <v>1500000</v>
+      </c>
+      <c r="D15" s="34">
+        <f>MIN(D9:D11)</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="9:9">
+      <c r="I16" s="45" t="str" cm="1">
+        <f t="array" ref="I16">INDEX(A9:A13,MATCH(I17,I9:I13,FALSE),1)</f>
+        <v>Tetta</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="34">
+        <f>MAX(I9:I13)</f>
+        <v>1.73066666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:I8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+      <formula1>"cost,benefit"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A11:U32"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="M17" sqref="M13:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="18.5047619047619" customWidth="1"/>
-    <col min="5" max="5" width="13.5047619047619" customWidth="1"/>
-    <col min="6" max="6" width="15.1333333333333" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.5047619047619" customWidth="1"/>
+    <col min="7" max="7" width="15.1333333333333" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" customHeight="1" spans="11:11">
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" customHeight="1" spans="11:11">
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="4" t="s">
+    <row r="1" ht="31" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="12:12">
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:16">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="P5" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customHeight="1" spans="9:9">
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="str">
+        <f>A6</f>
+        <v>C1</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>A7</f>
+        <v>C2</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>A8</f>
+        <v>C3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f>B6</f>
+        <v>GPA</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>B7</f>
+        <v>Parent's Income</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>B8</f>
+        <v>Parent's Dependent</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f>B11</f>
+        <v>C1</v>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f>C11</f>
+        <v>C2</v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f>D11</f>
+        <v>C3</v>
+      </c>
+      <c r="I12" s="27" t="str">
+        <f>B11</f>
+        <v>C1</v>
+      </c>
+      <c r="J12" s="27" t="str">
+        <f>C11</f>
+        <v>C2</v>
+      </c>
+      <c r="K12" s="27" t="str">
+        <f>D11</f>
+        <v>C3</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3.82</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" s="16">
+        <f t="shared" ref="F13:F17" si="0">B13/MAX($B$13:$B$17)</f>
+        <v>0.955</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" ref="G13:G17" si="1">MIN($C$13:$C$17)/C13</f>
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" ref="H13:H17" si="2">D13/MAX($D$13:$D$17)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" ref="I13:I17" si="3">F13*C$6</f>
+        <v>0.382</v>
+      </c>
+      <c r="J13" s="29">
+        <f t="shared" ref="J13:J17" si="4">G13*C$7</f>
+        <v>0.18</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" ref="K13:K17" si="5">H13*C$8</f>
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13:L17" si="6">I13+J13+K13</f>
+        <v>0.862</v>
+      </c>
+      <c r="M13" s="30">
+        <f t="shared" ref="M13:M17" si="7">RANK(L13,$L$13:$L$17)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="1:13">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1500000</v>
+      </c>
+      <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="8:8">
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:21">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="U20" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:21">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:21">
-      <c r="A22" s="7">
+      <c r="E14"/>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B22" s="7">
-        <v>111</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="9">
-        <v>3.82</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2500000</v>
-      </c>
-      <c r="F22" s="7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16">
-        <v>111</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="17">
-        <v>3.82</v>
-      </c>
-      <c r="L22" s="16">
-        <v>2500000</v>
-      </c>
-      <c r="M22" s="16">
-        <v>1</v>
-      </c>
-      <c r="N22" s="18">
-        <f ca="1" t="shared" ref="N22:N26" si="0">K22/MAX($K$22:$K$26)</f>
-        <v>0.955</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" ref="O22:O26" si="1">MIN($L$22:$L$26)/L22</f>
-        <v>0.6</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" ref="P22:P26" si="2">M22/MAX($M$22:$M$26)</f>
-        <v>0.2</v>
-      </c>
-      <c r="Q22" s="23">
-        <f ca="1" t="shared" ref="Q22:Q26" si="3">N22*C$15</f>
-        <v>0.382</v>
-      </c>
-      <c r="R22" s="24">
-        <f t="shared" ref="R22:R26" si="4">O22*C$16</f>
-        <v>0.18</v>
-      </c>
-      <c r="S22" s="23">
-        <f t="shared" ref="S22:S26" si="5">P22*C$17</f>
-        <v>0.06</v>
-      </c>
-      <c r="T22" s="18">
-        <f ca="1" t="shared" ref="T22:T26" si="6">Q22+R22+S22</f>
-        <v>0.622</v>
-      </c>
-      <c r="U22" s="19">
-        <f ca="1">RANK(T22,$T$22:T26)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:21">
-      <c r="A23" s="7">
-        <v>2</v>
-      </c>
-      <c r="B23" s="7">
-        <v>112</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2</v>
-      </c>
-      <c r="H23" s="10">
-        <v>2</v>
-      </c>
-      <c r="I23" s="16">
-        <v>112</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="17">
-        <v>4</v>
-      </c>
-      <c r="L23" s="16">
-        <v>1500000</v>
-      </c>
-      <c r="M23" s="16">
-        <v>2</v>
-      </c>
-      <c r="N23" s="18">
-        <f ca="1" t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="18">
+      <c r="G14" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P23" s="18">
+      <c r="H14" s="16">
         <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="Q23" s="23">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="R23" s="23">
+      <c r="J14" s="28">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="S23" s="24">
+      <c r="K14" s="29">
         <f t="shared" si="5"/>
-        <v>0.12</v>
-      </c>
-      <c r="T23" s="18">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.82</v>
-      </c>
-      <c r="U23" s="19">
-        <f ca="1">RANK(T23,$T$22:T27)</f>
+        <v>0.225</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="6"/>
+        <v>0.925</v>
+      </c>
+      <c r="M14" s="30">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:21">
-      <c r="A24" s="7">
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2.48</v>
+      </c>
+      <c r="C15" s="15">
+        <v>4000000</v>
+      </c>
+      <c r="D15" s="15">
         <v>3</v>
       </c>
-      <c r="B24" s="7">
-        <v>113</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2.48</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="F24" s="7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="H24" s="10">
-        <v>3</v>
-      </c>
-      <c r="I24" s="16">
-        <v>113</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="17">
-        <v>2.48</v>
-      </c>
-      <c r="L24" s="16">
-        <v>4000000</v>
-      </c>
-      <c r="M24" s="16">
-        <v>5</v>
-      </c>
-      <c r="N24" s="19">
-        <f ca="1" t="shared" si="0"/>
+      <c r="E15"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="O24" s="18">
+      <c r="G15" s="16">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="P24" s="18">
+      <c r="H15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.248</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.1125</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="5"/>
+        <v>0.225</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="6"/>
+        <v>0.5855</v>
+      </c>
+      <c r="M15" s="30">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:13">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3200000</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.324</v>
+      </c>
+      <c r="J16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.140625</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="6"/>
+        <v>0.614625</v>
+      </c>
+      <c r="M16" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:13">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>5000000</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="23">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.248</v>
-      </c>
-      <c r="R24" s="23">
+      <c r="I17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="J17" s="29">
         <f t="shared" si="4"/>
-        <v>0.1125</v>
-      </c>
-      <c r="S24" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="K17" s="28">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="T24" s="18">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.6605</v>
-      </c>
-      <c r="U24" s="19">
-        <f ca="1">RANK(T24,$T$22:T28)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:21">
-      <c r="A25" s="7">
+      <c r="L17" s="16">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+      <c r="M17" s="30">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:13">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" customHeight="1" spans="11:14">
+      <c r="K19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="21">
+        <f>MAX(B13:B17)</f>
         <v>4</v>
       </c>
-      <c r="B25" s="7">
-        <v>114</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="9">
-        <v>3.24</v>
-      </c>
-      <c r="E25" s="7">
-        <v>3200000</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="M19" s="24">
+        <f>MIN(C13:C17)</f>
+        <v>1500000</v>
+      </c>
+      <c r="N19" s="24">
+        <f>MAX(D13:D17)</f>
         <v>4</v>
       </c>
-      <c r="I25" s="16">
-        <v>114</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="17">
-        <v>3.24</v>
-      </c>
-      <c r="L25" s="16">
-        <v>3200000</v>
-      </c>
-      <c r="M25" s="16">
-        <v>3</v>
-      </c>
-      <c r="N25" s="19">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="O25" s="18">
-        <f t="shared" si="1"/>
-        <v>0.46875</v>
-      </c>
-      <c r="P25" s="18">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q25" s="23">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.324</v>
-      </c>
-      <c r="R25" s="23">
-        <f t="shared" si="4"/>
-        <v>0.140625</v>
-      </c>
-      <c r="S25" s="23">
-        <f t="shared" si="5"/>
-        <v>0.18</v>
-      </c>
-      <c r="T25" s="18">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.644625</v>
-      </c>
-      <c r="U25" s="19">
-        <f ca="1">RANK(T25,$T$22:T29)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:21">
-      <c r="A26" s="7">
-        <v>5</v>
-      </c>
-      <c r="B26" s="7">
-        <v>115</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="9">
-        <f ca="1">RANDBETWEEN(0.1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="E26" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="F26" s="7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
-      </c>
-      <c r="H26" s="10">
-        <v>5</v>
-      </c>
-      <c r="I26" s="16">
-        <v>115</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="17">
-        <f ca="1">RANDBETWEEN(0.1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="L26" s="16">
-        <v>5000000</v>
-      </c>
-      <c r="M26" s="16">
-        <v>1</v>
-      </c>
-      <c r="N26" s="18">
-        <f ca="1" t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="18">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="P26" s="18">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q26" s="23">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="R26" s="24">
-        <f t="shared" si="4"/>
-        <v>0.09</v>
-      </c>
-      <c r="S26" s="23">
-        <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="T26" s="18">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.55</v>
-      </c>
-      <c r="U26" s="19">
-        <f ca="1">RANK(T26,$T$22:T30)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="10:13">
-      <c r="J27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="12">
-        <f ca="1">MAX(K22:K26)</f>
-        <v>4</v>
-      </c>
-      <c r="L27" s="5">
-        <f>MIN(L22:L26)</f>
-        <v>1500000</v>
-      </c>
-      <c r="M27" s="5">
-        <f>MAX(M22:M26)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="32" customHeight="1" spans="12:12">
-      <c r="L32" s="11" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="22"/>
+    </row>
+    <row r="24" customHeight="1" spans="13:13">
+      <c r="M24" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/arsip/simpleadditiveweight.xlsx
+++ b/arsip/simpleadditiveweight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CPI" sheetId="2" r:id="rId1"/>
@@ -997,7 +997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1043,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,11 +1055,11 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1584,7 +1583,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -1612,7 +1611,7 @@
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <f>SUM(B5:D5)</f>
         <v>1</v>
       </c>
@@ -1622,12 +1621,12 @@
       </c>
     </row>
     <row r="7" spans="6:9">
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="42" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1647,19 +1646,19 @@
         <f>D3</f>
         <v>Dependent</v>
       </c>
-      <c r="F8" s="41" t="str">
+      <c r="F8" s="40" t="str">
         <f>B3</f>
         <v>GPA</v>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="40" t="str">
         <f>C3</f>
         <v>Income</v>
       </c>
-      <c r="H8" s="41" t="str">
+      <c r="H8" s="40" t="str">
         <f>D3</f>
         <v>Dependent</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" ht="15" spans="1:10">
       <c r="A9" s="37" t="s">
@@ -1674,20 +1673,19 @@
       <c r="D9" s="37">
         <v>4</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <f>$B$15/B9</f>
         <v>0.649214659685864</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="40">
         <f>C9/$C$15</f>
         <v>1.66666666666667</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="40">
         <f>D9/$D$15</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <f>F9*$B$5+G9*$C$5+H9*$D$5</f>
         <v>1.15968586387435</v>
       </c>
@@ -1709,20 +1707,19 @@
       <c r="D10" s="37">
         <v>3</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <f>$B$15/B10</f>
         <v>0.62</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <f>C10/$C$15</f>
         <v>1</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="40">
         <f>D10/$D$15</f>
         <v>1</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <f>F10*$B$5+G10*$C$5+H10*$D$5</f>
         <v>0.848</v>
       </c>
@@ -1744,20 +1741,19 @@
       <c r="D11" s="37">
         <v>3</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <f>$B$15/B11</f>
         <v>1</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="40">
         <f>C11/$C$15</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="40">
         <f>D11/$D$15</f>
         <v>1</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="43">
         <f>F11*$B$5+G11*$C$5+H11*$D$5</f>
         <v>1.5</v>
       </c>
@@ -1779,20 +1775,19 @@
       <c r="D12" s="37">
         <v>2</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
         <f>$B$15/B12</f>
         <v>0.765432098765432</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <f>C12/$C$15</f>
         <v>2.13333333333333</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="40">
         <f>D12/$D$15</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f>F12*$B$5+G12*$C$5+H12*$D$5</f>
         <v>1.14617283950617</v>
       </c>
@@ -1814,20 +1809,19 @@
       <c r="D13" s="37">
         <v>4</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <f>$B$15/B13</f>
         <v>0.826666666666667</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <f>C13/$C$15</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="40">
         <f>D13/$D$15</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <f>F13*$B$5+G13*$C$5+H13*$D$5</f>
         <v>1.73066666666667</v>
       </c>
@@ -1857,7 +1851,7 @@
       </c>
     </row>
     <row r="16" ht="15" spans="9:9">
-      <c r="I16" s="45" t="str" cm="1">
+      <c r="I16" s="44" t="str" cm="1">
         <f t="array" ref="I16">INDEX(A9:A13,MATCH(I17,I9:I13,FALSE),1)</f>
         <v>Tetta</v>
       </c>
@@ -1888,19 +1882,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="M17" sqref="M13:M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="18.5047619047619" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="3.57142857142857" customWidth="1"/>
     <col min="6" max="6" width="13.5047619047619" customWidth="1"/>
     <col min="7" max="7" width="15.1333333333333" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="9" max="9" width="3.42857142857143" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:1">
@@ -1908,8 +1903,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="12:12">
-      <c r="L3" s="21"/>
+    <row r="3" customHeight="1" spans="13:13">
+      <c r="M3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -1919,7 +1914,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customHeight="1" spans="1:16">
+    <row r="5" customHeight="1" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +1928,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="P5" s="23" t="s">
+      <c r="Q5" s="33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1982,8 +1977,8 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" customHeight="1" spans="9:9">
-      <c r="I9" s="24"/>
+    <row r="9" customHeight="1" spans="10:10">
+      <c r="J9" s="23"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="8" t="s">
@@ -1993,7 +1988,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" customHeight="1" spans="1:13">
+    <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="str">
         <f>A6</f>
@@ -2012,19 +2007,20 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="25" t="s">
+      <c r="I11"/>
+      <c r="J11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="26" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="N11" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:13">
+    <row r="12" customHeight="1" spans="1:14">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -2052,22 +2048,22 @@
         <f>D11</f>
         <v>C3</v>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="J12" s="26" t="str">
         <f>B11</f>
         <v>C1</v>
       </c>
-      <c r="J12" s="27" t="str">
+      <c r="K12" s="26" t="str">
         <f>C11</f>
         <v>C2</v>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="L12" s="26" t="str">
         <f>D11</f>
         <v>C3</v>
       </c>
-      <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:13">
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +2076,6 @@
       <c r="D13" s="15">
         <v>4</v>
       </c>
-      <c r="E13"/>
       <c r="F13" s="16">
         <f t="shared" ref="F13:F17" si="0">B13/MAX($B$13:$B$17)</f>
         <v>0.955</v>
@@ -2093,28 +2088,28 @@
         <f t="shared" ref="H13:H17" si="2">D13/MAX($D$13:$D$17)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="28">
-        <f t="shared" ref="I13:I17" si="3">F13*C$6</f>
+      <c r="J13" s="27">
+        <f t="shared" ref="J13:J17" si="3">F13*C$6</f>
         <v>0.382</v>
       </c>
-      <c r="J13" s="29">
-        <f t="shared" ref="J13:J17" si="4">G13*C$7</f>
+      <c r="K13" s="28">
+        <f t="shared" ref="K13:K17" si="4">G13*C$7</f>
         <v>0.18</v>
       </c>
-      <c r="K13" s="28">
-        <f t="shared" ref="K13:K17" si="5">H13*C$8</f>
+      <c r="L13" s="27">
+        <f t="shared" ref="L13:L17" si="5">H13*C$8</f>
         <v>0.3</v>
       </c>
-      <c r="L13" s="16">
-        <f t="shared" ref="L13:L17" si="6">I13+J13+K13</f>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13:M17" si="6">J13+K13+L13</f>
         <v>0.862</v>
       </c>
-      <c r="M13" s="30">
-        <f t="shared" ref="M13:M17" si="7">RANK(L13,$L$13:$L$17)</f>
+      <c r="N13" s="29">
+        <f>RANK(M13,$M$13:$M$17)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:13">
+    <row r="14" customHeight="1" spans="1:14">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2122,6 @@
       <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="E14"/>
       <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2140,28 +2134,28 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="I14" s="28">
+      <c r="J14" s="27">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="J14" s="28">
+      <c r="K14" s="27">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="K14" s="29">
+      <c r="L14" s="28">
         <f t="shared" si="5"/>
         <v>0.225</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M14" s="16">
         <f t="shared" si="6"/>
         <v>0.925</v>
       </c>
-      <c r="M14" s="30">
-        <f t="shared" si="7"/>
+      <c r="N14" s="29">
+        <f t="shared" ref="N13:N17" si="7">RANK(M14,$M$13:$M$17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:13">
+    <row r="15" customHeight="1" spans="1:14">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -2174,7 +2168,6 @@
       <c r="D15" s="15">
         <v>3</v>
       </c>
-      <c r="E15"/>
       <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>0.62</v>
@@ -2187,28 +2180,28 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="I15" s="28">
+      <c r="J15" s="27">
         <f t="shared" si="3"/>
         <v>0.248</v>
       </c>
-      <c r="J15" s="28">
+      <c r="K15" s="27">
         <f t="shared" si="4"/>
         <v>0.1125</v>
       </c>
-      <c r="K15" s="28">
+      <c r="L15" s="27">
         <f t="shared" si="5"/>
         <v>0.225</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M15" s="16">
         <f t="shared" si="6"/>
         <v>0.5855</v>
       </c>
-      <c r="M15" s="30">
+      <c r="N15" s="29">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:13">
+    <row r="16" customHeight="1" spans="1:14">
       <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
@@ -2221,7 +2214,6 @@
       <c r="D16" s="15">
         <v>2</v>
       </c>
-      <c r="E16"/>
       <c r="F16" s="17">
         <f t="shared" si="0"/>
         <v>0.81</v>
@@ -2234,28 +2226,28 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I16" s="28">
+      <c r="J16" s="27">
         <f t="shared" si="3"/>
         <v>0.324</v>
       </c>
-      <c r="J16" s="28">
+      <c r="K16" s="27">
         <f t="shared" si="4"/>
         <v>0.140625</v>
       </c>
-      <c r="K16" s="28">
+      <c r="L16" s="27">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
-      <c r="L16" s="16">
+      <c r="M16" s="16">
         <f t="shared" si="6"/>
         <v>0.614625</v>
       </c>
-      <c r="M16" s="30">
+      <c r="N16" s="29">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:13">
+    <row r="17" customHeight="1" spans="1:14">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -2268,7 +2260,6 @@
       <c r="D17" s="15">
         <v>4</v>
       </c>
-      <c r="E17"/>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2281,28 +2272,28 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I17" s="28">
+      <c r="J17" s="27">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="J17" s="29">
+      <c r="K17" s="28">
         <f t="shared" si="4"/>
         <v>0.09</v>
       </c>
-      <c r="K17" s="28">
+      <c r="L17" s="27">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="L17" s="16">
+      <c r="M17" s="16">
         <f t="shared" si="6"/>
         <v>0.79</v>
       </c>
-      <c r="M17" s="30">
+      <c r="N17" s="29">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
+    <row r="18" customHeight="1" spans="1:14">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -2310,25 +2301,26 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="I18"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" customHeight="1" spans="11:14">
-      <c r="K19" s="23" t="s">
+      <c r="L18" s="30"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="32"/>
+    </row>
+    <row r="19" customHeight="1" spans="12:15">
+      <c r="L19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="21">
+      <c r="M19" s="21">
         <f>MAX(B13:B17)</f>
         <v>4</v>
       </c>
-      <c r="M19" s="24">
+      <c r="N19" s="23">
         <f>MIN(C13:C17)</f>
         <v>1500000</v>
       </c>
-      <c r="N19" s="24">
+      <c r="O19" s="23">
         <f>MAX(D13:D17)</f>
         <v>4</v>
       </c>
@@ -2336,15 +2328,15 @@
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="22"/>
     </row>
-    <row r="24" customHeight="1" spans="13:13">
-      <c r="M24" s="22"/>
+    <row r="24" customHeight="1" spans="14:14">
+      <c r="N24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
